--- a/Courses/Computer-Modeling-and-IT/Computer-Modeling-and-IT-6-Class/10-Formulas-and-Functions/Resources/temperature.xlsx
+++ b/Courses/Computer-Modeling-and-IT/Computer-Modeling-and-IT-6-Class/10-Formulas-and-Functions/Resources/temperature.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs project\GitHub\School-Programming\Courses\Computer-Modeling-and-IT\Computer-Modeling-and-IT-6-Class\10-Formulas-and-Functions\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandrinamehandzhiyska/Documents/GitHub/School-Programming/Courses/Computer-Modeling-and-IT/Computer-Modeling-and-IT-6-Class/10-Formulas-and-Functions/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33893BF-CEAB-9E45-9CB8-36DD2A6F4D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm"/>
     <numFmt numFmtId="165" formatCode="0\°\C"/>
@@ -90,11 +91,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,33 +375,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -420,463 +421,463 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>45209</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>17</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>45209</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>45210</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>15</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>45210</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>45211</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>14</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>45211</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>45212</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>15</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>45212</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>15</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>45213</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>13</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>45213</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>45214</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>17</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>45214</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>45215</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>11</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>45215</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>45216</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>10</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>45216</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>45217</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>45217</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>45218</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>45218</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>45219</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>20</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>45219</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>45220</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>19</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>45220</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>45221</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>13</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>45221</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>45222</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>16</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>45222</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>45223</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>17</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>45223</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>45224</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>11</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>45224</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>45225</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>10</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>45225</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>45226</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>14</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>45226</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>45227</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>15</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>45227</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>45228</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>15</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>45228</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>45229</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>17</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>45229</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>45230</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>12</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>45230</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>45231</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>11</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>45231</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>12.7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>45232</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>14</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>45232</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>45233</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>14</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>45233</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>45234</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>15</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>45234</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>45235</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>16</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>45235</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>45236</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>16</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>45236</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>45237</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>17</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>45237</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>45238</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>10</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>45238</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>45239</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>8</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>45239</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>45240</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>6</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>45240</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>6</v>
       </c>
     </row>

--- a/Courses/Computer-Modeling-and-IT/Computer-Modeling-and-IT-6-Class/10-Formulas-and-Functions/Resources/temperature.xlsx
+++ b/Courses/Computer-Modeling-and-IT/Computer-Modeling-and-IT-6-Class/10-Formulas-and-Functions/Resources/temperature.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandrinamehandzhiyska/Documents/GitHub/School-Programming/Courses/Computer-Modeling-and-IT/Computer-Modeling-and-IT-6-Class/10-Formulas-and-Functions/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\School-Programming\Courses\Computer-Modeling-and-IT\Computer-Modeling-and-IT-6-Class\10-Formulas-and-Functions\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33893BF-CEAB-9E45-9CB8-36DD2A6F4D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B0230B-144A-4A7A-BB4B-4980B9D4C4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Лични измервания</t>
   </si>
@@ -50,6 +50,12 @@
   <si>
     <t>Температурна амплитуда:</t>
   </si>
+  <si>
+    <t>Дата2</t>
+  </si>
+  <si>
+    <t>средна температура за деня3</t>
+  </si>
 </sst>
 </file>
 
@@ -59,7 +65,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm"/>
     <numFmt numFmtId="165" formatCode="0\°\C"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,16 +74,37 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,23 +112,153 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0\°\C"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0\°\C"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9966"/>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FFFFCC00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -111,6 +268,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F82C07FB-4FD2-41EA-8E74-0A0744E5DF6B}" name="Table1" displayName="Table1" ref="A2:D34" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A2:D34" xr:uid="{F82C07FB-4FD2-41EA-8E74-0A0744E5DF6B}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{64EBA40F-5DDC-483F-B2A1-610205F271C0}" name="Дата" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{3D2054B0-7405-4739-BD0D-76E7B138592A}" name="средна температура за деня" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{3CBB6F99-DC0A-480F-A1F7-F7A22C4A9612}" name="Дата2" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{FB3C4F9D-2587-4052-99C1-A383D2334F62}" name="средна температура за деня3" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium24" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,40 +549,41 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
@@ -421,463 +592,463 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>45209</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>17</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>45209</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>45210</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>15</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>45210</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>45211</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>14</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>45211</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>45212</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>15</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>45212</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>15</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>45213</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>13</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>45213</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>45214</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>17</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>45214</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>45215</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>11</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>45215</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>45216</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>10</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>45216</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>45217</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>45217</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>45218</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>45218</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>45219</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>20</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>45219</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>45220</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>19</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>45220</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>45221</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>13</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>45221</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>45222</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>16</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>45222</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>45223</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>17</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>45223</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>45224</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>11</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>45224</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>45225</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>10</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>45225</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>45226</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>45226</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>45227</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>45227</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>45228</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>15</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>45228</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>45229</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>45229</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>45230</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>12</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>45230</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>45231</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>11</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>45231</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <v>12.7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>45232</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <v>14</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>45232</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>45233</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>14</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>45233</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>45234</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <v>15</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <v>45234</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>45235</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="3">
         <v>16</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>45235</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>45236</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <v>16</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>45236</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>45237</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <v>17</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>45237</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>45238</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="3">
         <v>10</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>45238</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>45239</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="3">
         <v>8</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <v>45239</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>45240</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="3">
         <v>6</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <v>45240</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="3">
         <v>6</v>
       </c>
     </row>
@@ -886,7 +1057,11 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>